--- a/data/outputs/OR_elsevier/28.xlsx
+++ b/data/outputs/OR_elsevier/28.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS182"/>
+  <dimension ref="A1:BU182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -947,6 +957,12 @@
           <t>2-s2.0-84948390424</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84948423224</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1379,6 +1401,12 @@
           <t>2-s2.0-84948420843</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1596,6 +1624,12 @@
           <t>2-s2.0-84948442700</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1809,6 +1843,12 @@
           <t>2-s2.0-84948394797</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2030,6 +2070,12 @@
           <t>2-s2.0-84948394740</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2243,6 +2289,12 @@
           <t>2-s2.0-84948421997</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2460,6 +2512,12 @@
           <t>2-s2.0-84948437933</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2673,6 +2731,12 @@
           <t>2-s2.0-84948433055</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2890,6 +2954,12 @@
           <t>2-s2.0-84948397574</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3110,6 +3180,12 @@
         <is>
           <t>2-s2.0-84948428695</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3317,6 +3393,12 @@
         <is>
           <t>2-s2.0-84948391156</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3511,6 +3593,12 @@
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3704,6 +3792,12 @@
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3913,6 +4007,12 @@
           <t>2-s2.0-84948440512</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4138,6 +4238,12 @@
           <t>2-s2.0-84944059519</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4363,6 +4469,12 @@
           <t>2-s2.0-84944078068</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4587,6 +4699,12 @@
         <is>
           <t>2-s2.0-84944042664</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -4797,6 +4915,12 @@
           <t>2-s2.0-84944073655</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5009,6 +5133,12 @@
         <is>
           <t>2-s2.0-84944104696</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -5221,6 +5351,12 @@
           <t>2-s2.0-84944145379</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5442,6 +5578,12 @@
           <t>2-s2.0-84944111975</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5667,6 +5809,12 @@
           <t>2-s2.0-84944096697</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5892,6 +6040,12 @@
           <t>2-s2.0-84944079235</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6109,6 +6263,12 @@
           <t>2-s2.0-84944033238</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6334,6 +6494,12 @@
           <t>2-s2.0-84944069657</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6561,6 +6727,12 @@
           <t>2-s2.0-84944058962</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6778,6 +6950,12 @@
           <t>2-s2.0-84944104694</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6990,6 +7168,12 @@
         <is>
           <t>2-s2.0-84944035553</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -7205,6 +7389,12 @@
         <is>
           <t>2-s2.0-84944076633</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -7391,6 +7581,12 @@
           <t>2-s2.0-84944128580</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7615,6 +7811,12 @@
         <is>
           <t>2-s2.0-84944076503</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7813,6 +8015,12 @@
       <c r="BQ34" t="inlineStr"/>
       <c r="BR34" t="inlineStr"/>
       <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8022,6 +8230,12 @@
           <t>2-s2.0-84941007740</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8231,6 +8445,12 @@
           <t>2-s2.0-84940985040</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8451,6 +8671,12 @@
         <is>
           <t>2-s2.0-84940980961</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8667,6 +8893,12 @@
           <t>2-s2.0-84940989473</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8888,6 +9120,12 @@
           <t>2-s2.0-84940991796</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9101,6 +9339,12 @@
           <t>2-s2.0-84941005186</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9317,6 +9561,12 @@
         <is>
           <t>2-s2.0-84940980945</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -9527,6 +9777,12 @@
           <t>2-s2.0-84940978072</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9744,6 +10000,12 @@
           <t>2-s2.0-84940986099</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9953,6 +10215,12 @@
           <t>2-s2.0-84941004494</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10174,6 +10442,12 @@
           <t>2-s2.0-84940994055</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10399,6 +10673,12 @@
           <t>2-s2.0-84940978676</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10616,6 +10896,12 @@
           <t>2-s2.0-84922985967</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10833,6 +11119,12 @@
           <t>2-s2.0-84938565889</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11058,6 +11350,12 @@
           <t>2-s2.0-84938588094</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11267,6 +11565,12 @@
           <t>2-s2.0-84938632655</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11488,6 +11792,12 @@
           <t>2-s2.0-84938651423</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11700,6 +12010,12 @@
         <is>
           <t>2-s2.0-84938558637</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -11910,6 +12226,12 @@
           <t>2-s2.0-84938593838</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12123,6 +12445,12 @@
           <t>2-s2.0-84938568339</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12336,6 +12664,12 @@
           <t>2-s2.0-84938583937</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12549,6 +12883,12 @@
           <t>2-s2.0-84938614001</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12766,6 +13106,12 @@
           <t>2-s2.0-84938569906</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12983,6 +13329,12 @@
           <t>2-s2.0-84938631125</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13198,6 +13550,12 @@
           <t>2-s2.0-84938633846</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13414,6 +13772,12 @@
         <is>
           <t>2-s2.0-84938651420</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -13624,6 +13988,12 @@
           <t>2-s2.0-84938585418</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13843,6 +14213,12 @@
           <t>2-s2.0-84938599290</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14059,6 +14435,12 @@
         <is>
           <t>2-s2.0-84938629961</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -14273,6 +14655,12 @@
           <t>2-s2.0-84937441787</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14490,6 +14878,12 @@
           <t>2-s2.0-84937397057</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14714,6 +15108,12 @@
         <is>
           <t>2-s2.0-84937399270</t>
         </is>
+      </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -14924,6 +15324,12 @@
           <t>2-s2.0-84937510658</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15132,6 +15538,12 @@
         <is>
           <t>2-s2.0-84937485177</t>
         </is>
+      </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -15338,6 +15750,12 @@
           <t>2-s2.0-84937458808</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15547,6 +15965,12 @@
           <t>2-s2.0-84937411438</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15767,6 +16191,12 @@
         <is>
           <t>2-s2.0-84937510654</t>
         </is>
+      </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -15977,6 +16407,12 @@
           <t>2-s2.0-84937425581</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16200,6 +16636,12 @@
           <t>2-s2.0-84937423970</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16413,6 +16855,12 @@
           <t>2-s2.0-84937468258</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16638,6 +17086,12 @@
           <t>2-s2.0-84937442339</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16853,6 +17307,12 @@
           <t>2-s2.0-84937509634</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17066,6 +17526,12 @@
           <t>2-s2.0-84937509635</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17291,6 +17757,12 @@
           <t>2-s2.0-84937243200</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17503,6 +17975,12 @@
         <is>
           <t>2-s2.0-84937197981</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -17708,6 +18186,12 @@
         <is>
           <t>2-s2.0-84937243198</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -17914,6 +18398,12 @@
           <t>2-s2.0-84937217934</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18123,6 +18613,12 @@
           <t>2-s2.0-84937210799</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18339,6 +18835,12 @@
         <is>
           <t>2-s2.0-84937208525</t>
         </is>
+      </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -18547,6 +19049,12 @@
           <t>2-s2.0-84937202191</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18774,6 +19282,12 @@
           <t>2-s2.0-84937239258</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18986,6 +19500,12 @@
         <is>
           <t>2-s2.0-84937231250</t>
         </is>
+      </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -19192,6 +19712,12 @@
           <t>2-s2.0-84937231732</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19404,6 +19930,12 @@
         <is>
           <t>2-s2.0-84937202877</t>
         </is>
+      </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -19610,6 +20142,12 @@
           <t>2-s2.0-84937231227</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19830,6 +20368,12 @@
         <is>
           <t>2-s2.0-84937239709</t>
         </is>
+      </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -20012,6 +20556,12 @@
       <c r="BQ91" t="inlineStr"/>
       <c r="BR91" t="inlineStr"/>
       <c r="BS91" t="inlineStr"/>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20225,6 +20775,12 @@
           <t>2-s2.0-84929118614</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20450,6 +21006,12 @@
           <t>2-s2.0-84929092314</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20663,6 +21225,12 @@
           <t>2-s2.0-84929118615</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20872,6 +21440,12 @@
           <t>2-s2.0-84929103385</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21097,6 +21671,12 @@
           <t>2-s2.0-84929103388</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21309,6 +21889,12 @@
         <is>
           <t>2-s2.0-84929088224</t>
         </is>
+      </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -21519,6 +22105,12 @@
           <t>2-s2.0-84929079030</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21728,6 +22320,12 @@
           <t>2-s2.0-84929093537</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21945,6 +22543,12 @@
           <t>2-s2.0-84929092695</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22155,6 +22759,12 @@
         <is>
           <t>2-s2.0-84929119616</t>
         </is>
+      </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -22365,6 +22975,12 @@
           <t>2-s2.0-84929091988</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22586,6 +23202,12 @@
           <t>2-s2.0-84929119641</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22798,6 +23420,12 @@
         <is>
           <t>2-s2.0-84929085027</t>
         </is>
+      </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -23012,6 +23640,12 @@
           <t>2-s2.0-84929072157</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23228,6 +23862,12 @@
         <is>
           <t>2-s2.0-84928153331</t>
         </is>
+      </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -23437,6 +24077,12 @@
         <is>
           <t>2-s2.0-84928142609</t>
         </is>
+      </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -23639,6 +24285,12 @@
           <t>2-s2.0-84928126111</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23856,6 +24508,12 @@
           <t>2-s2.0-84928112291</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24071,6 +24729,12 @@
           <t>2-s2.0-84928153620</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24288,6 +24952,12 @@
           <t>2-s2.0-84928170273</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24508,6 +25178,12 @@
         <is>
           <t>2-s2.0-84928155329</t>
         </is>
+      </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -24718,6 +25394,12 @@
           <t>2-s2.0-84928153310</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24927,6 +25609,12 @@
           <t>2-s2.0-84928155335</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25143,6 +25831,12 @@
         <is>
           <t>2-s2.0-84928137896</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -25353,6 +26047,12 @@
           <t>2-s2.0-84928106322</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25578,6 +26278,12 @@
           <t>2-s2.0-84928150521</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25795,6 +26501,12 @@
           <t>2-s2.0-84928136529</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26022,6 +26734,12 @@
           <t>2-s2.0-84928166068</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26239,6 +26957,12 @@
           <t>2-s2.0-84928155299</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26455,6 +27179,12 @@
         <is>
           <t>2-s2.0-84924528114</t>
         </is>
+      </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -26661,6 +27391,12 @@
           <t>2-s2.0-84924530350</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26880,6 +27616,12 @@
           <t>2-s2.0-84924559652</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27096,6 +27838,12 @@
         <is>
           <t>2-s2.0-84924584368</t>
         </is>
+      </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -27302,6 +28050,12 @@
           <t>2-s2.0-84924582234</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27517,6 +28271,12 @@
           <t>2-s2.0-84924590288</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27729,6 +28489,12 @@
         <is>
           <t>2-s2.0-84924598711</t>
         </is>
+      </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -27935,6 +28701,12 @@
           <t>2-s2.0-84924584556</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28152,6 +28924,12 @@
           <t>2-s2.0-84924530251</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28376,6 +29154,12 @@
         <is>
           <t>2-s2.0-84924567327</t>
         </is>
+      </c>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -28578,6 +29362,12 @@
           <t>2-s2.0-84924588333</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28778,6 +29568,12 @@
         <is>
           <t>2-s2.0-84924588341</t>
         </is>
+      </c>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="133">
@@ -28974,6 +29770,12 @@
           <t>2-s2.0-84924542749</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29169,6 +29971,12 @@
           <t>2-s2.0-84924624016</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29378,6 +30186,12 @@
           <t>2-s2.0-84924532800</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29587,6 +30401,12 @@
           <t>2-s2.0-84924561400</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29794,6 +30614,12 @@
           <t>2-s2.0-84924530246</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30003,6 +30829,12 @@
           <t>2-s2.0-84924598686</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30217,6 +31049,12 @@
         <is>
           <t>2-s2.0-84961354927</t>
         </is>
+      </c>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -30427,6 +31265,12 @@
           <t>2-s2.0-84922150103</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30646,6 +31490,12 @@
           <t>2-s2.0-84961291178</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30862,6 +31712,12 @@
         <is>
           <t>2-s2.0-84961333862</t>
         </is>
+      </c>
+      <c r="BT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="143">
@@ -31071,6 +31927,12 @@
         <is>
           <t>2-s2.0-84961336711</t>
         </is>
+      </c>
+      <c r="BT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -31277,6 +32139,12 @@
           <t>2-s2.0-84922142400</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31494,6 +32362,12 @@
           <t>2-s2.0-84922146347</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31714,6 +32588,12 @@
         <is>
           <t>2-s2.0-84961334751</t>
         </is>
+      </c>
+      <c r="BT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="147">
@@ -31928,6 +32808,12 @@
           <t>2-s2.0-84922142669</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32148,6 +33034,12 @@
         <is>
           <t>2-s2.0-84961291979</t>
         </is>
+      </c>
+      <c r="BT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -32350,6 +33242,12 @@
           <t>2-s2.0-84922203620</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32560,6 +33458,12 @@
         <is>
           <t>2-s2.0-84961357135</t>
         </is>
+      </c>
+      <c r="BT150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="151">
@@ -32770,6 +33674,12 @@
           <t>2-s2.0-84922152048</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32995,6 +33905,12 @@
           <t>2-s2.0-84961338364</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33212,6 +34128,12 @@
           <t>2-s2.0-84959858227</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33441,6 +34363,12 @@
           <t>2-s2.0-84920508814</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33660,6 +34588,12 @@
           <t>2-s2.0-84920547921</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33876,6 +34810,12 @@
         <is>
           <t>2-s2.0-84920545824</t>
         </is>
+      </c>
+      <c r="BT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -34092,6 +35032,12 @@
           <t>2-s2.0-84920517283</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34313,6 +35259,12 @@
           <t>2-s2.0-84920525025</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34530,6 +35482,12 @@
           <t>2-s2.0-84920548658</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34755,6 +35713,12 @@
           <t>2-s2.0-84920531580</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34971,6 +35935,12 @@
         <is>
           <t>2-s2.0-84920545942</t>
         </is>
+      </c>
+      <c r="BT161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -35177,6 +36147,12 @@
           <t>2-s2.0-84920545816</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35387,6 +36363,12 @@
         <is>
           <t>2-s2.0-84920507031</t>
         </is>
+      </c>
+      <c r="BT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="164">
@@ -35589,6 +36571,12 @@
           <t>2-s2.0-84920511602</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35800,6 +36788,12 @@
           <t>2-s2.0-84920515308</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36021,6 +37015,12 @@
           <t>2-s2.0-84920517025</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36238,6 +37238,12 @@
           <t>2-s2.0-84920547451</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36457,6 +37463,12 @@
           <t>2-s2.0-84924370087</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36669,6 +37681,12 @@
         <is>
           <t>2-s2.0-84924376122</t>
         </is>
+      </c>
+      <c r="BT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="170">
@@ -36879,6 +37897,12 @@
           <t>2-s2.0-84924353927</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37096,6 +38120,12 @@
           <t>2-s2.0-84924368605</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37309,6 +38339,12 @@
           <t>2-s2.0-84924410463</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37518,6 +38554,12 @@
           <t>2-s2.0-84924426462</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37735,6 +38777,12 @@
           <t>2-s2.0-84924405949</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37948,6 +38996,12 @@
           <t>2-s2.0-84924368546</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38174,6 +39228,12 @@
         <is>
           <t>2-s2.0-84924406448</t>
         </is>
+      </c>
+      <c r="BT176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -38380,6 +39440,12 @@
           <t>2-s2.0-84924353523</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38588,6 +39654,12 @@
         <is>
           <t>2-s2.0-84924415408</t>
         </is>
+      </c>
+      <c r="BT178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="179">
@@ -38778,6 +39850,12 @@
       <c r="BQ179" t="inlineStr"/>
       <c r="BR179" t="inlineStr"/>
       <c r="BS179" t="inlineStr"/>
+      <c r="BT179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38969,6 +40047,12 @@
         <v>2954754</v>
       </c>
       <c r="BS180" t="inlineStr"/>
+      <c r="BT180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39194,6 +40278,12 @@
           <t>2-s2.0-84924350189</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39419,6 +40509,12 @@
           <t>2-s2.0-84924345793</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
